--- a/Discharge/RatingCurves/Station04_RatingCurve.xlsx
+++ b/Discharge/RatingCurves/Station04_RatingCurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2FEF65-0A8D-B841-B26D-585E25351BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A47136-01DB-2A4B-9034-C9E00E5F85BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23400" yWindow="3420" windowWidth="26840" windowHeight="15940" xr2:uid="{6CB04A12-2A0F-C54A-9824-925B3D905A65}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Station 04</t>
+  </si>
+  <si>
+    <t>missing data</t>
   </si>
 </sst>
 </file>
@@ -406,20 +409,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B083A1E-C9C3-504A-9D64-223DEA1B9D23}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -436,7 +439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44714</v>
       </c>
@@ -449,8 +452,11 @@
       <c r="E3">
         <v>1.2014999999999998E-2</v>
       </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44719</v>
       </c>
@@ -460,8 +466,14 @@
       <c r="C4" s="2">
         <v>0.5</v>
       </c>
+      <c r="E4">
+        <v>2.8125000000000003E-3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44764</v>
       </c>
@@ -471,8 +483,14 @@
       <c r="C5" s="2">
         <v>0.45833333333333331</v>
       </c>
+      <c r="E5">
+        <v>2.8740000000000005E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44769</v>
       </c>
@@ -481,6 +499,12 @@
       </c>
       <c r="C6" s="2">
         <v>0.52083333333333337</v>
+      </c>
+      <c r="E6">
+        <v>3.1280000000000002E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
